--- a/src/pypelay/raos.xlsx
+++ b/src/pypelay/raos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daveh\Github\J017-Sapura\pypelay\src\pypelay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5A4583-F43C-4A60-849F-84156D474BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7C0091-7F1C-4C61-A5E9-D9F30C9E831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="2400" windowWidth="18000" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7650" yWindow="1785" windowWidth="16860" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Vessel</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Previously SAPURA-3500</t>
+  </si>
+  <si>
+    <t>S1200b</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,18 +448,35 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>7.28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/pypelay/raos.xlsx
+++ b/src/pypelay/raos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daveh\Github\J017-Sapura\pypelay\src\pypelay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7C0091-7F1C-4C61-A5E9-D9F30C9E831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270CAD72-C331-4A21-8B2A-688C4BF95E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="1785" windowWidth="16860" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38865" yWindow="2520" windowWidth="16950" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Vessel</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Previously SAPURA-3500</t>
-  </si>
-  <si>
-    <t>S1200b</t>
   </si>
 </sst>
 </file>
@@ -398,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,35 +445,18 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>7.4</v>
+        <v>7.28</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7.28</v>
-      </c>
-      <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
